--- a/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +451,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +589,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -701,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -897,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1003,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1067,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="69">
   <si>
     <t>-</t>
   </si>
@@ -1223,9 +1223,6 @@
   </si>
   <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
   </si>
   <si>
     <t>SK</t>
@@ -1599,7 +1596,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1712,6 +1709,9 @@
     <xf numFmtId="3" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,9 +1719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,25 +1739,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2058,12 +2043,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2096,9 +2082,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="39"/>
+    <tableColumn id="2" name="Link" dataDxfId="38" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2367,13 +2353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2382,90 +2368,87 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="13" width="3.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
-        <v>34</v>
+      <c r="E3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2473,50 +2456,49 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -2525,31 +2507,30 @@
       <c r="K4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17" t="s">
-        <v>35</v>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -2557,40 +2538,39 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -2598,40 +2578,39 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -2639,330 +2618,317 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="24">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20" t="s">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:L10 K11 K12:L12 K13 K14:L14">
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+  <conditionalFormatting sqref="J5:K10 J11 J12:K12 J13 J14:K14">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -2975,7 +2941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14 K4:L4">
+  <conditionalFormatting sqref="I3:I14 J4:K4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2987,12 +2953,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14 K4:L4">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I3:I14 J4:K4">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L3">
+  <conditionalFormatting sqref="J3:K3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3004,14 +2970,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3032,13 +2998,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3047,91 +3013,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="27" t="s">
-        <v>44</v>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3139,10 +3102,10 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="26">
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3151,38 +3114,37 @@
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3194,28 +3156,27 @@
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="27" t="s">
-        <v>45</v>
+      <c r="E5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -3223,10 +3184,10 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="26" t="s">
@@ -3235,28 +3196,27 @@
       <c r="L5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -3264,7 +3224,7 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="26" t="s">
@@ -3276,28 +3236,27 @@
       <c r="L6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -3305,10 +3264,10 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="26" t="s">
@@ -3317,36 +3276,35 @@
       <c r="L7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="26" t="s">
@@ -3358,36 +3316,35 @@
       <c r="L8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="26" t="s">
@@ -3399,36 +3356,35 @@
       <c r="L9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="26" t="s">
@@ -3440,36 +3396,35 @@
       <c r="L10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -3481,37 +3436,36 @@
       <c r="L11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>47</v>
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>0</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>0</v>
@@ -3522,36 +3476,35 @@
       <c r="L12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="26" t="s">
@@ -3563,37 +3516,36 @@
       <c r="L13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>48</v>
+      <c r="H14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>0</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>0</v>
@@ -3601,13 +3553,10 @@
       <c r="K14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3616,13 +3565,13 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:M6 J3 J8:M13 K7:M7 J14:L14">
-    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J1))))</formula>
+  <conditionalFormatting sqref="I5:L6 I3 I8:L13 J7:L7 I14:K14">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -3635,9 +3584,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -3650,9 +3599,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -3665,9 +3614,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -3680,9 +3629,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -3695,9 +3644,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3710,9 +3659,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -3725,9 +3674,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -3740,9 +3689,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -3755,9 +3704,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3778,13 +3727,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3793,91 +3742,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="27" t="s">
-        <v>49</v>
+      <c r="E3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3885,10 +3831,10 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -3897,38 +3843,37 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -3940,28 +3885,27 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -3969,10 +3913,10 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -3981,28 +3925,27 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -4010,10 +3953,10 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -4022,28 +3965,27 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -4051,10 +3993,10 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -4063,39 +4005,38 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -4104,39 +4045,38 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -4145,39 +4085,38 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -4186,39 +4125,38 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -4227,39 +4165,38 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -4268,92 +4205,87 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4362,11 +4294,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
+  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4378,7 +4310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
+  <conditionalFormatting sqref="I4:I14 J4:L4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4390,7 +4322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
+  <conditionalFormatting sqref="J3:L3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4402,9 +4334,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -4417,9 +4349,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4432,9 +4364,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -4455,7 +4387,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{4F69F102-F488-4C57-B057-CED0FB848B7F}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!K3))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -4465,7 +4397,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
+          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{D432C8A5-106D-4754-803E-FCD12B6F97B3}">
@@ -4479,7 +4411,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K3:M3</xm:sqref>
+          <xm:sqref>J3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{A731C907-1852-408E-9507-7C98A26AFD28}">
@@ -4493,7 +4425,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J14 K4:M4</xm:sqref>
+          <xm:sqref>I4:I14 J4:L4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4503,13 +4435,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4518,91 +4450,88 @@
     <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="27" t="s">
-        <v>52</v>
+      <c r="E3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4610,10 +4539,10 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -4622,38 +4551,37 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -4665,28 +4593,27 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -4694,10 +4621,10 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -4706,28 +4633,27 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -4735,10 +4661,10 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -4747,28 +4673,27 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -4776,10 +4701,10 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -4788,39 +4713,38 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -4829,39 +4753,38 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -4870,39 +4793,38 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -4911,39 +4833,38 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -4952,39 +4873,38 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -4993,92 +4913,87 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="G14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5087,11 +5002,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:M12 K13:K14 M13">
+  <conditionalFormatting sqref="J5:L12 J13:J14 L13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5103,7 +5018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
+  <conditionalFormatting sqref="I4:I14 J4:L4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5115,9 +5030,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5130,9 +5045,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5145,9 +5060,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5168,7 +5083,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{C6C91AEB-22E6-4A42-880F-53D7AAF82A8E}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!K3))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -5178,7 +5093,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K13:K14 M13</xm:sqref>
+          <xm:sqref>J5:L12 J13:J14 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{3F2BE473-2772-49C2-8AB8-A3FDBC87BB8D}">
@@ -5192,7 +5107,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J14 K4:M4</xm:sqref>
+          <xm:sqref>I4:I14 J4:L4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5202,13 +5117,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5217,91 +5132,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="27" t="s">
-        <v>54</v>
+      <c r="E3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5309,10 +5221,10 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -5321,38 +5233,37 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -5364,28 +5275,27 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -5393,10 +5303,10 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -5405,28 +5315,27 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -5434,10 +5343,10 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -5446,28 +5355,27 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -5475,10 +5383,10 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -5487,39 +5395,38 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -5528,39 +5435,38 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -5569,39 +5475,38 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -5610,39 +5515,38 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -5651,39 +5555,38 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -5692,92 +5595,87 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5786,11 +5684,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
+  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5802,7 +5700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
+  <conditionalFormatting sqref="J3:L3">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5814,7 +5712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
+  <conditionalFormatting sqref="I4:I14 J4:L4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5826,9 +5724,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5841,9 +5739,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5856,9 +5754,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5879,7 +5777,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{135B15D1-EDF2-4DB9-8D8C-CDB67A51852A}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!K3))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -5889,7 +5787,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
+          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{63D80721-004B-4DC9-B76C-E46AD6A68EC6}">
@@ -5903,7 +5801,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K3:M3</xm:sqref>
+          <xm:sqref>J3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{9D751435-DAF3-4BBE-8C0E-0DCD76C974EC}">
@@ -5917,7 +5815,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J14 K4:M4</xm:sqref>
+          <xm:sqref>I4:I14 J4:L4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5927,13 +5825,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5942,91 +5840,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="27" t="s">
-        <v>55</v>
+      <c r="E3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6034,10 +5929,10 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -6046,38 +5941,37 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -6089,28 +5983,27 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -6118,10 +6011,10 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -6130,28 +6023,27 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -6159,10 +6051,10 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -6171,28 +6063,27 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -6200,10 +6091,10 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -6212,39 +6103,38 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -6253,39 +6143,38 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -6294,39 +6183,38 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -6335,39 +6223,38 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -6376,39 +6263,38 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -6417,92 +6303,87 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6511,11 +6392,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
+  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6527,7 +6408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
+  <conditionalFormatting sqref="I4:I14 J4:L4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6539,7 +6420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
+  <conditionalFormatting sqref="J3:L3">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6551,9 +6432,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6566,9 +6447,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -6581,9 +6462,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6604,7 +6485,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{F6232136-129C-492B-967A-F3A858C868FE}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!K3))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -6614,7 +6495,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
+          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{501F5484-D1FE-4E2A-A969-703124E35777}">
@@ -6628,7 +6509,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K3:M3</xm:sqref>
+          <xm:sqref>J3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{5482DCC8-E586-4DFD-AC2B-72110760154D}">
@@ -6642,7 +6523,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J14 K4:M4</xm:sqref>
+          <xm:sqref>I4:I14 J4:L4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6652,13 +6533,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6667,91 +6548,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
-        <v>33</v>
-      </c>
+      <c r="I1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="49"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="28" t="s">
-        <v>56</v>
+      <c r="E3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -6759,53 +6637,52 @@
       <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="34" t="s">
@@ -6814,28 +6691,27 @@
       <c r="L4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="36" t="s">
-        <v>50</v>
+      <c r="E5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -6843,10 +6719,10 @@
       <c r="H5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -6855,28 +6731,27 @@
       <c r="L5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="36" t="s">
-        <v>36</v>
+      <c r="E6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -6884,10 +6759,10 @@
       <c r="H6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -6896,28 +6771,27 @@
       <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="36" t="s">
-        <v>37</v>
+      <c r="E7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -6925,10 +6799,10 @@
       <c r="H7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="35" t="s">
@@ -6937,39 +6811,38 @@
       <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="E8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -6978,39 +6851,38 @@
       <c r="L8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34" t="s">
+      <c r="E9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="35" t="s">
@@ -7019,39 +6891,38 @@
       <c r="L9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>39</v>
+      <c r="E10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34" t="s">
+      <c r="I10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="35" t="s">
@@ -7060,39 +6931,38 @@
       <c r="L10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34" t="s">
+      <c r="E11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="35" t="s">
@@ -7101,39 +6971,38 @@
       <c r="L11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="34" t="s">
+      <c r="H12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="35" t="s">
@@ -7142,92 +7011,87 @@
       <c r="L12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="H14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7236,9 +7100,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7248,13 +7112,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7263,91 +7127,88 @@
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
-        <v>32</v>
-      </c>
+      <c r="I1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="49"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="28" t="s">
-        <v>57</v>
+      <c r="E3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -7355,53 +7216,52 @@
       <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="34" t="s">
@@ -7410,28 +7270,27 @@
       <c r="L4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="38" t="s">
-        <v>50</v>
+      <c r="E5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -7439,10 +7298,10 @@
       <c r="H5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -7451,28 +7310,27 @@
       <c r="L5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="38" t="s">
-        <v>36</v>
+      <c r="E6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -7480,10 +7338,10 @@
       <c r="H6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -7492,28 +7350,27 @@
       <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="38" t="s">
-        <v>37</v>
+      <c r="E7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -7521,10 +7378,10 @@
       <c r="H7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="35" t="s">
@@ -7533,39 +7390,38 @@
       <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="E8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -7574,39 +7430,38 @@
       <c r="L8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34" t="s">
+      <c r="E9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="35" t="s">
@@ -7615,39 +7470,38 @@
       <c r="L9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>39</v>
+      <c r="E10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34" t="s">
+      <c r="I10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="35" t="s">
@@ -7656,39 +7510,38 @@
       <c r="L10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34" t="s">
+      <c r="E11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="35" t="s">
@@ -7697,39 +7550,38 @@
       <c r="L11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="34" t="s">
+      <c r="H12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="35" t="s">
@@ -7738,92 +7590,87 @@
       <c r="L12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="H14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="L14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7832,9 +7679,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1747,6 +1747,15 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -2042,15 +2051,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2082,9 +2082,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="39"/>
-    <tableColumn id="2" name="Link" dataDxfId="38" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="37"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2927,7 +2927,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:K10 J11 J12:K12 J13 J14:K14">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -2954,7 +2954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14 J4:K4">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2971,12 +2971,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3570,7 +3570,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:L6 I3 I8:L13 J7:L7 I14:K14">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3585,7 +3585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3600,7 +3600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -3615,7 +3615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -3630,7 +3630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3645,7 +3645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3660,7 +3660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3675,7 +3675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3690,7 +3690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3705,7 +3705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4335,7 +4335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4350,7 +4350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4365,7 +4365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5031,7 +5031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5046,7 +5046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5061,7 +5061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5725,7 +5725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5740,7 +5740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5755,7 +5755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6433,7 +6433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6448,7 +6448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6463,7 +6463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7114,7 +7114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7693,11 +7693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/Евро/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2355,11 +2355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
